--- a/data/trans_camb/P25_N_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,01</t>
+          <t>-1,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>6,79</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>2,53</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,41</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-3,73</t>
+          <t>-2,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,73</t>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-4,06</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,66</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,52</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 5,05</t>
+          <t>-6,56; 4,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,24; 8,11</t>
+          <t>-4,49; 6,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,2; 15,31</t>
+          <t>0,17; 13,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,55; -0,67</t>
+          <t>-3,8; 9,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,51; 4,05</t>
+          <t>-6,0; 5,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 8,11</t>
+          <t>-11,41; -1,61</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,17</t>
+          <t>-7,67; 2,38</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,95; 4,27</t>
+          <t>-1,15; 9,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,56; 9,69</t>
+          <t>-4,73; 6,57</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-2,12; 8,41</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-7,89; -0,18</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,7; 3,48</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 10,19</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-2,88; 6,15</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 5,42</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>-4,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>30,82%</t>
+          <t>21,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-12,37%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-2,76%</t>
+          <t>-0,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>-12,65%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-9,04%</t>
+          <t>-4,75%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>9,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>1,96%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,41%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-9,7%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-1,59%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>13,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>3,46%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-19,66; 18,14</t>
+          <t>-20,03; 15,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,46; 29,37</t>
+          <t>-13,16; 23,28</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,83; 56,66</t>
+          <t>0,5; 47,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,66; -1,41</t>
+          <t>-9,1; 26,9</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 8,4</t>
+          <t>-13,96; 14,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 16,61</t>
+          <t>-21,12; -3,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,29; 0,46</t>
+          <t>-14,13; 5,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,24; 10,97</t>
+          <t>-2,16; 20,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,65; 25,27</t>
+          <t>-7,72; 12,85</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-3,73; 16,29</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-18,15; -0,55</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 8,81</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,7; 25,46</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-5,67; 13,63</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-4,41; 11,94</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,52</t>
+          <t>4,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-4,1</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>6,78</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>8,98</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,73</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>9,88</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-2,16</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>10,09</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>4,46</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,45; 5,25</t>
+          <t>-6,7; 5,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 10,92</t>
+          <t>-2,12; 11,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,27; 9,45</t>
+          <t>3,08; 16,72</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,13; 2,42</t>
+          <t>-7,2; 9,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 6,31</t>
+          <t>-1,92; 16,23</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 17,59</t>
+          <t>-9,44; 2,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,09; 1,51</t>
+          <t>-5,06; 6,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 6,51</t>
+          <t>3,27; 16,15</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 10,66</t>
+          <t>-8,82; 8,38</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-7,11; 12,12</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-6,67; 2,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,38; 6,63</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>4,84; 15,19</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 6,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,61; 11,59</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-4,27%</t>
+          <t>-2,14%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>36,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-9,13%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>20,92%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>20,02%</t>
+          <t>-8,08%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-7,37%</t>
+          <t>1,44%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>22,2%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>-0,31%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,94%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-0,36%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-22,57; 20,19</t>
+          <t>-21,2; 22,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 43,43</t>
+          <t>-6,68; 44,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-21,81; 37,06</t>
+          <t>10,62; 67,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-21,21; 5,62</t>
+          <t>-17,35; 26,08</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,94; 15,46</t>
+          <t>-4,97; 59,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,33; 40,68</t>
+          <t>-19,82; 5,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-18,25; 4,3</t>
+          <t>-10,73; 16,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 18,54</t>
+          <t>7,1; 40,01</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,58; 30,52</t>
+          <t>-15,67; 16,37</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-12,53; 25,97</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-17,3; 6,76</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 19,78</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>12,74; 44,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-12,48; 14,31</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-5,62; 31,14</t>
         </is>
       </c>
     </row>
@@ -1064,45 +1352,75 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,76</t>
+          <t>-4,02</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>3,37</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,31</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,82</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-0,98</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,08</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 8,25</t>
+          <t>-15,45; 8,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-9,27; 15,37</t>
+          <t>-10,03; 15,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-15,46; 12,78</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-10,57; 13,38</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 14,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-8,53; 13,65</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-7,05; 15,92</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-10,81; 14,57</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-10,44; 7,13</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-5,12; 12,29</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,56; 7,95</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-5,81; 12,4</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-8,4; 10,8</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>-11,88%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,36%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,43%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,44%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-4,08%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,22%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-2,22%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>2,45%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-38,58; 33,04</t>
+          <t>-38,83; 31,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-24,17; 57,66</t>
+          <t>-24,49; 58,26</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
+          <t>-36,92; 46,07</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-17,09; 27,92</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,96; 27,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-14,26; 28,62</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-11,92; 32,54</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-18,25; 29,37</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-21,43; 18,19</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-10,95; 31,24</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-20,25; 20,0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-12,02; 31,97</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-17,44; 26,69</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1285,42 +1693,72 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,61</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>7,51</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,7</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>1,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-4,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,11</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,78</t>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-2,95</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>2,27</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 2,62</t>
+          <t>-5,31; 2,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 6,71</t>
+          <t>-0,96; 6,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,05; 12,01</t>
+          <t>3,33; 12,05</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,34; -0,65</t>
+          <t>-2,8; 7,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 3,88</t>
+          <t>-3,31; 6,01</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0,42; 9,43</t>
+          <t>-8,23; -0,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,92; -0,2</t>
+          <t>-4,34; 2,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 4,05</t>
+          <t>2,2; 10,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,81</t>
+          <t>-2,9; 5,62</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,26; 7,63</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,13; -0,43</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 4,03</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>3,52; 9,72</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,62; 5,17</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 5,55</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-4,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>24,75%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-9,54%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,76%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,25%</t>
+          <t>-8,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-7,77%</t>
+          <t>-1,03%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>13,0%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>1,95%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>5,77%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,37%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>17,18%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-16,61; 9,28</t>
+          <t>-16,42; 7,9</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-5,58; 23,95</t>
+          <t>-2,89; 24,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>9,45; 42,85</t>
+          <t>10,36; 42,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -1,44</t>
+          <t>-6,84; 20,32</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-7,86; 8,36</t>
+          <t>-7,95; 16,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0,72; 19,75</t>
+          <t>-15,94; -1,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,4; -0,52</t>
+          <t>-8,47; 6,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 10,49</t>
+          <t>4,32; 21,51</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,03; 22,91</t>
+          <t>-4,99; 10,49</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,23; 14,87</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-14,64; -0,96</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 10,21</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>8,5; 25,35</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-3,42; 11,45</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-2,11; 12,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
